--- a/xlsx/塔利班_intext.xlsx
+++ b/xlsx/塔利班_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="277">
   <si>
     <t>塔利班</t>
   </si>
@@ -29,7 +29,7 @@
     <t>阿富汗战争 (2001年)</t>
   </si>
   <si>
-    <t>政策_政策_美國_塔利班</t>
+    <t>政策_政策_美国_塔利班</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%AF%8C%E6%B1%97%E6%88%98%E4%BA%89_(2015%E5%B9%B4%E8%87%B3%E4%BB%8A)</t>
@@ -59,7 +59,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E4%BB%80%E5%9C%96%E7%93%A6%E9%87%8C</t>
   </si>
   <si>
-    <t>普什圖瓦里</t>
+    <t>普什图瓦里</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%95%99%E5%90%88%E4%B8%80</t>
@@ -143,7 +143,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%93%8B%E9%81%94%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>蓋達組織</t>
+    <t>盖达组织</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Tehreek-e-Nafaz-e-Shariat-e-Mohammadi</t>
@@ -185,7 +185,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A7%90%E9%98%BF%E5%AF%8C%E6%B1%97%E5%9C%8B%E9%9A%9B%E7%B6%AD%E5%92%8C%E9%83%A8%E9%9A%8A</t>
   </si>
   <si>
-    <t>駐阿富汗國際維和部隊</t>
+    <t>驻阿富汗国际维和部队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E5%85%B0%E5%9B%BD</t>
@@ -215,19 +215,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E4%BB%80%E5%9C%96%E8%AA%9E</t>
   </si>
   <si>
-    <t>普什圖語</t>
+    <t>普什图语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E8%AA%9E</t>
   </si>
   <si>
-    <t>波斯語</t>
+    <t>波斯语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E8%98%AD%E6%95%99</t>
   </si>
   <si>
-    <t>伊斯蘭教</t>
+    <t>伊斯兰教</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E5%85%B0%E5%8E%9F%E6%95%99%E6%97%A8%E4%B8%BB%E4%B9%89</t>
@@ -275,13 +275,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E8%AA%9E</t>
   </si>
   <si>
-    <t>阿拉伯語</t>
+    <t>阿拉伯语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%B0%E9%AC%A5%E6%A9%9F</t>
   </si>
   <si>
-    <t>戰鬥機</t>
+    <t>战斗机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%96%80%E5%B8%83%E5%B0%94</t>
@@ -353,13 +353,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E6%95%99%E7%A7%91%E6%96%87%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>聯合國教科文組織</t>
+    <t>联合国教科文组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E7%B1%B3%E6%8F%9A%E5%A4%A7%E4%BD%9B</t>
   </si>
   <si>
-    <t>巴米揚大佛</t>
+    <t>巴米扬大佛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B4%87%E6%8B%9C</t>
@@ -377,7 +377,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%82%B8%E8%97%A5</t>
   </si>
   <si>
-    <t>炸藥</t>
+    <t>炸药</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9D%A6%E5%85%8B</t>
@@ -389,7 +389,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%93%C2%B7%E6%8B%89%E7%99%BB</t>
   </si>
   <si>
-    <t>賓·拉登</t>
+    <t>宾·拉登</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E6%96%B9%E8%81%94%E7%9B%9F_(%E9%98%BF%E5%AF%8C%E6%B1%97)</t>
@@ -431,19 +431,16 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E6%97%A6</t>
   </si>
   <si>
-    <t>約旦</t>
+    <t>约旦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E8%98%AD%E5%9C%8B</t>
   </si>
   <si>
-    <t>伊斯蘭國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E5%AE%AE%E7%99%BC%E8%A8%80%E4%BA%BA</t>
   </si>
   <si>
-    <t>白宮發言人</t>
+    <t>白宫发言人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%81%90%E6%80%96%E4%B8%BB%E4%B9%89</t>
@@ -455,7 +452,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%82%B3%E5%AA%92</t>
   </si>
   <si>
-    <t>傳媒</t>
+    <t>传媒</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%BA%9C</t>
@@ -479,13 +476,10 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%AF%8C%E6%B1%97%E6%88%B0%E7%88%AD_(2001%E5%B9%B4)</t>
   </si>
   <si>
-    <t>阿富汗戰爭 (2001年)</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%81%E6%9E%B6</t>
   </si>
   <si>
-    <t>綁架</t>
+    <t>绑架</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E8%B4%A8</t>
@@ -497,13 +491,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%81%90%E6%80%96%E6%94%BB%E6%93%8A</t>
   </si>
   <si>
-    <t>恐怖攻擊</t>
+    <t>恐怖攻击</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2007%E5%B9%B4%E5%A1%94%E5%88%A9%E7%8F%AD%E6%8C%BE%E6%8C%81%E9%9F%93%E5%9C%8B%E4%BA%BA%E8%B3%AA%E4%BA%8B%E4%BB%B6</t>
   </si>
   <si>
-    <t>2007年塔利班挾持韓國人質事件</t>
+    <t>2007年塔利班挟持韩国人质事件</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9E%AA%E5%86%B3</t>
@@ -515,13 +509,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E7%8F%BE%E4%BB%A3</t>
   </si>
   <si>
-    <t>反現代</t>
+    <t>反现代</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E9%87%8C%E4%BA%9E%E6%B3%95%E8%A6%8F</t>
   </si>
   <si>
-    <t>沙里亞法規</t>
+    <t>沙里亚法规</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%93%A6%E5%93%88%E6%AF%94%E6%B4%BE</t>
@@ -533,7 +527,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E8%AD%98%E5%BD%A2%E6%85%8B</t>
   </si>
   <si>
-    <t>意識形態</t>
+    <t>意识形态</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%B3%E6%80%A7</t>
@@ -545,19 +539,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%BD%B1</t>
   </si>
   <si>
-    <t>電影</t>
+    <t>电影</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E8%A6%96</t>
   </si>
   <si>
-    <t>電視</t>
+    <t>电视</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%B3%E6%A8%82</t>
   </si>
   <si>
-    <t>音樂</t>
+    <t>音乐</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%88%9E%E8%B9%88</t>
@@ -569,7 +563,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8F%9A%E5%96%84%E6%8A%91%E6%83%A1%E5%B1%80</t>
   </si>
   <si>
-    <t>揚善抑惡局</t>
+    <t>扬善抑恶局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9E%AD%E6%89%93</t>
@@ -581,7 +575,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E4%BB%80%E5%9C%96%E6%97%8F</t>
   </si>
   <si>
-    <t>普什圖族</t>
+    <t>普什图族</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%81%B7%E6%83%85</t>
@@ -593,13 +587,10 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E4%BB%80%E5%9C%96%E4%BA%BA</t>
   </si>
   <si>
-    <t>普什圖人</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%80%E8%91%89%E6%B4%BE</t>
   </si>
   <si>
-    <t>什葉派</t>
+    <t>什叶派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E6%89%8E%E6%8B%89%E6%97%8F</t>
@@ -617,7 +608,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E8%98%AD%E7%B6%93</t>
   </si>
   <si>
-    <t>古蘭經</t>
+    <t>古兰经</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E5%85%B0%E5%A0%A1</t>
@@ -635,39 +626,36 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%AF%8C%E6%B1%97%E6%B0%91%E4%B8%BB%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>阿富汗民主共和國</t>
+    <t>阿富汗民主共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%AF%8C%E6%B1%97%E4%BA%BA%E6%B0%91%E6%B0%91%E4%B8%BB%E9%BB%A8</t>
   </si>
   <si>
-    <t>阿富汗人民民主黨</t>
+    <t>阿富汗人民民主党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%AF%8C%E6%B1%97%E4%BC%8A%E6%96%AF%E8%98%AD%E5%9C%8B</t>
   </si>
   <si>
-    <t>阿富汗伊斯蘭國</t>
+    <t>阿富汗伊斯兰国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E6%88%B0%E8%80%85</t>
   </si>
   <si>
-    <t>聖戰者</t>
+    <t>圣战者</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E6%96%B9%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>北方聯盟</t>
+    <t>北方联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%AF%8C%E6%B1%97%E4%BC%8A%E6%96%AF%E8%98%AD%E9%85%8B%E9%95%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>阿富汗伊斯蘭酋長國</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/Shaukat_Qadir</t>
   </si>
   <si>
@@ -689,7 +677,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E6%99%82%E5%A0%B1</t>
   </si>
   <si>
-    <t>紐約時報</t>
+    <t>纽约时报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/WorldCat</t>
@@ -701,7 +689,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E7%9B%AE%E9%8C%84</t>
   </si>
   <si>
-    <t>聯合目錄</t>
+    <t>联合目录</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%94%E5%88%A9%E7%8F%AD%E5%8C%96</t>
@@ -713,13 +701,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8E%9F%E6%95%99%E6%97%A8%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>原教旨主義</t>
+    <t>原教旨主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%88%BE%E8%93%8B%E9%81%94%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>阿爾蓋達組織</t>
+    <t>阿尔盖达组织</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Osama_(film)</t>
@@ -761,7 +749,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E5%8A%A0%E7%B4%A2%E9%85%8B%E9%95%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>高加索酋長國</t>
+    <t>高加索酋长国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E5%85%B0%E6%B3%95%E5%A1%94%E8%B5%AB</t>
@@ -773,13 +761,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%AA%E6%96%AF%E6%8B%89%E9%99%A3%E7%B7%9A</t>
   </si>
   <si>
-    <t>努斯拉陣線</t>
+    <t>努斯拉阵线</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%94%E8%AA%A0%E8%BB%8D</t>
   </si>
   <si>
-    <t>虔誠軍</t>
+    <t>虔诚军</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Jaish-e-Mohammed</t>
@@ -791,7 +779,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E8%98%AD%E7%A5%88%E7%A6%B1%E5%9C%98</t>
   </si>
   <si>
-    <t>伊斯蘭祈禱團</t>
+    <t>伊斯兰祈祷团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B8%83%E6%B2%99%E8%80%B6%E5%A4%AB</t>
@@ -803,7 +791,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E8%90%8A%E6%9B%BC%E9%85%8B%E9%95%B7%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>蘇萊曼酋長運動</t>
+    <t>苏莱曼酋长运动</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Islamic_Jihad_Union</t>
@@ -821,7 +809,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E6%B4%9B%E5%93%A5%E4%BC%8A%E6%96%AF%E8%98%AD%E6%88%B0%E9%AC%A5%E5%9C%98</t>
   </si>
   <si>
-    <t>摩洛哥伊斯蘭戰鬥團</t>
+    <t>摩洛哥伊斯兰战斗团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%9A%E7%A7%91%E5%9C%A3%E5%9C%B0</t>
@@ -833,7 +821,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -851,7 +839,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -3403,7 +3391,7 @@
         <v>139</v>
       </c>
       <c r="F76" t="s">
-        <v>140</v>
+        <v>58</v>
       </c>
       <c r="G76" t="n">
         <v>4</v>
@@ -3429,10 +3417,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>140</v>
+      </c>
+      <c r="F77" t="s">
         <v>141</v>
-      </c>
-      <c r="F77" t="s">
-        <v>142</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3487,10 +3475,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>142</v>
+      </c>
+      <c r="F79" t="s">
         <v>143</v>
-      </c>
-      <c r="F79" t="s">
-        <v>144</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3516,10 +3504,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>144</v>
+      </c>
+      <c r="F80" t="s">
         <v>145</v>
-      </c>
-      <c r="F80" t="s">
-        <v>146</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3545,10 +3533,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>146</v>
+      </c>
+      <c r="F81" t="s">
         <v>147</v>
-      </c>
-      <c r="F81" t="s">
-        <v>148</v>
       </c>
       <c r="G81" t="n">
         <v>13</v>
@@ -3574,10 +3562,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>148</v>
+      </c>
+      <c r="F82" t="s">
         <v>149</v>
-      </c>
-      <c r="F82" t="s">
-        <v>150</v>
       </c>
       <c r="G82" t="n">
         <v>2</v>
@@ -3603,10 +3591,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>150</v>
+      </c>
+      <c r="F83" t="s">
         <v>151</v>
-      </c>
-      <c r="F83" t="s">
-        <v>152</v>
       </c>
       <c r="G83" t="n">
         <v>7</v>
@@ -3632,10 +3620,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F84" t="s">
-        <v>154</v>
+        <v>3</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -3661,10 +3649,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F85" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -3690,10 +3678,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F86" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G86" t="n">
         <v>3</v>
@@ -3719,10 +3707,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F87" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -3748,10 +3736,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F88" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -3777,10 +3765,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F89" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -3806,10 +3794,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F90" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -3864,10 +3852,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F92" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -3893,10 +3881,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F93" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G93" t="n">
         <v>3</v>
@@ -3951,10 +3939,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F95" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G95" t="n">
         <v>4</v>
@@ -3980,10 +3968,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F96" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G96" t="n">
         <v>2</v>
@@ -4009,10 +3997,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F97" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -4038,10 +4026,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F98" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4067,10 +4055,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F99" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4096,10 +4084,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F100" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4125,10 +4113,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F101" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4154,10 +4142,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F102" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4183,10 +4171,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F103" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4212,10 +4200,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F104" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G104" t="n">
         <v>2</v>
@@ -4241,10 +4229,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F105" t="s">
-        <v>192</v>
+        <v>18</v>
       </c>
       <c r="G105" t="n">
         <v>3</v>
@@ -4270,10 +4258,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F106" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4299,10 +4287,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F107" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4328,10 +4316,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F108" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G108" t="n">
         <v>3</v>
@@ -4357,10 +4345,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F109" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4386,10 +4374,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F110" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4415,10 +4403,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F111" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4444,10 +4432,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F112" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4473,10 +4461,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F113" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4502,10 +4490,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F114" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -4531,10 +4519,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F115" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -4560,10 +4548,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F116" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G116" t="n">
         <v>2</v>
@@ -4618,10 +4606,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F118" t="s">
-        <v>216</v>
+        <v>10</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -4647,10 +4635,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="F119" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="G119" t="n">
         <v>2</v>
@@ -4676,10 +4664,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="F120" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="G120" t="n">
         <v>3</v>
@@ -4705,10 +4693,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F121" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -4734,10 +4722,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="F122" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -4763,10 +4751,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="F123" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="G123" t="n">
         <v>2</v>
@@ -4792,10 +4780,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="F124" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -4821,10 +4809,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="F125" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -4850,10 +4838,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="F126" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -4879,10 +4867,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F127" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -4908,10 +4896,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F128" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -4937,10 +4925,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F129" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -4966,10 +4954,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F130" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -4995,10 +4983,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F131" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5024,10 +5012,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F132" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5053,10 +5041,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F133" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5082,10 +5070,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F134" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5111,10 +5099,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F135" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5140,10 +5128,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F136" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5169,10 +5157,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F137" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5198,10 +5186,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F138" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5227,10 +5215,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F139" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5256,10 +5244,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F140" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5285,10 +5273,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F141" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -5314,10 +5302,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F142" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -5343,10 +5331,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F143" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -5372,10 +5360,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F144" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5401,10 +5389,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F145" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -5430,10 +5418,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F146" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G146" t="n">
         <v>3</v>
@@ -5459,10 +5447,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F147" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -5488,10 +5476,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F148" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -5517,10 +5505,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F149" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -5546,10 +5534,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="F150" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>

--- a/xlsx/塔利班_intext.xlsx
+++ b/xlsx/塔利班_intext.xlsx
@@ -29,7 +29,7 @@
     <t>阿富汗战争 (2001年)</t>
   </si>
   <si>
-    <t>政策_政策_美國_塔利班</t>
+    <t>体育运动_体育运动_伊朗_塔利班</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%AF%8C%E6%B1%97%E6%88%98%E4%BA%89_(2015%E5%B9%B4%E8%87%B3%E4%BB%8A)</t>
